--- a/ProjectX/wwwroot/Samplefile/tariff.xlsx
+++ b/ProjectX/wwwroot/Samplefile/tariff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it4\Documents\My Project\Project X\ProjectX - v5\ProjectX\wwwroot\Samplefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA29891-EDB4-4AD3-B471-BD75AA02E225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A520AF0C-DE7A-4D90-8E27-05487583693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>P_Id</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>T_Override_Amount</t>
-  </si>
-  <si>
-    <t>PL_Id</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -457,9 +454,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
